--- a/Menues/menueplan.xlsx
+++ b/Menues/menueplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Hans im Glück\1.5 Alle HIG\02 Menüs\01 Speisekarte 2025\Speisekarte 2025\Mittagsmenüs 2025\Catering\Menüversand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C38FD9-28AC-41D0-9156-8FF64A9B59DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9173F4-A4C1-413D-BA93-CF9188C38599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{2754CBA4-8E6F-4EEE-82AB-362BAD6BF1C0}"/>
   </bookViews>
@@ -213,97 +213,97 @@
     <t>Knackig frische Salate mit Melonen</t>
   </si>
   <si>
+    <t>Weissweinsuppe</t>
+  </si>
+  <si>
     <t>Hähnchenbrust mit Reis und Kohlrabi</t>
   </si>
   <si>
-    <t>Cremige Rüeblisuppe</t>
-  </si>
-  <si>
-    <t>Gemüsebouillon mit Risoni</t>
-  </si>
-  <si>
-    <t>Tomatensuppe</t>
-  </si>
-  <si>
-    <t>Kalte Gurkensuppe</t>
-  </si>
-  <si>
-    <t>Kopfsalat</t>
+    <t>Kalte Melonensuppe</t>
   </si>
   <si>
     <t>Knackig frische Salate mit Nüssen</t>
   </si>
   <si>
-    <t>Maissalat</t>
-  </si>
-  <si>
-    <t>Lollosalat</t>
-  </si>
-  <si>
-    <t>Nudelsalat mit Cherrytomaten, Mozzarella an Pestosauce</t>
-  </si>
-  <si>
-    <t>Nasi Goreng mit Pouletstreifen</t>
-  </si>
-  <si>
-    <t>Cordonbleu mit Bratkartoffeln und Rüebli</t>
-  </si>
-  <si>
-    <t>Bandnudeln mit Lachs an feiner Rahmsauce</t>
-  </si>
-  <si>
-    <t>Bandnudeln mit Cherrytomaten an feiner Rahmsauce</t>
-  </si>
-  <si>
-    <t>Pouletcurry mit Reis und Brokkoli</t>
-  </si>
-  <si>
-    <t>Geflügelbouillon mit Buchstaben</t>
-  </si>
-  <si>
-    <t>Spinat-Quiche dazu Salat mit Tomaten</t>
-  </si>
-  <si>
-    <t>Planted Poulet mit Reis und Brokkoli</t>
-  </si>
-  <si>
-    <t>Quorn Geschnetzeltes mit Rösti und Rüebli</t>
-  </si>
-  <si>
-    <t>Fotzelschnitte mit Apfelmus dazu Salat</t>
-  </si>
-  <si>
-    <t>Pinsa mit Tomatensauce, Mozzarella, Salami dazu Salat</t>
-  </si>
-  <si>
-    <t>Kebab dazu Salat</t>
-  </si>
-  <si>
-    <t>Spaghetti Napoli mit Parmesan</t>
-  </si>
-  <si>
-    <t>Gurkensalat an Joghurt-Dill-Dressing</t>
-  </si>
-  <si>
-    <t>Fruchtsalat</t>
-  </si>
-  <si>
-    <t>Gemüseschnitzel mit Bratkartoffeln und Zucchetti</t>
+    <t>Lauchcremesuppe</t>
+  </si>
+  <si>
+    <t>Tomaten-Mozzarella Salat</t>
+  </si>
+  <si>
+    <t>Rindsbouillon mit Fideli</t>
+  </si>
+  <si>
+    <t>Couscoussalat</t>
+  </si>
+  <si>
+    <t>Gemüsebouillon mit Backerbsen</t>
+  </si>
+  <si>
+    <t>Eisbergsalat</t>
+  </si>
+  <si>
+    <t>Marmorkuchen</t>
+  </si>
+  <si>
+    <t>Toast Hawaii dazu Salat</t>
+  </si>
+  <si>
+    <t>Gnocchisalat mit Pesto, Rucola und Cherrytomaten</t>
+  </si>
+  <si>
+    <t>Flammkuchen mit Zwiebeln und Speck dazu Salat</t>
+  </si>
+  <si>
+    <t>Gebratener Reis mit Gemüse</t>
+  </si>
+  <si>
+    <t>Zuckerhutsalat</t>
+  </si>
+  <si>
+    <t>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</t>
+  </si>
+  <si>
+    <t>Pouletbrsut an Tomatenreis mit Romanesco</t>
+  </si>
+  <si>
+    <t>Spaghetti mit roter Pesto dazu Salat</t>
+  </si>
+  <si>
+    <t>Käseküchlein mit Rüeblisalat</t>
+  </si>
+  <si>
+    <t>Ratatouille mit Rösti</t>
+  </si>
+  <si>
+    <t>Capuns mit Fleischfüllung</t>
+  </si>
+  <si>
+    <t>Capuns mit Gemüsefüllung</t>
+  </si>
+  <si>
+    <t>Mah Meh mit Tofu und Gemüse</t>
+  </si>
+  <si>
+    <t>Cipollataspiessli an Portweinjus mit Nudeln und Rüebli</t>
+  </si>
+  <si>
+    <t>Vegispiessli an Portweinjus mit Nudeln und Rüebli</t>
+  </si>
+  <si>
+    <t>Gemüsebruger im Bun mit Bratkartoffeln</t>
+  </si>
+  <si>
+    <t>Gebratenes Dorschfilet an Dillsauce mit Polentaschnitte und Brokkoli</t>
+  </si>
+  <si>
+    <t>Gebratene Zucchetti an Dillsauce mit Polentaschnitte und Brokkoli</t>
   </si>
   <si>
     <t>Hähnchenbrust mit Pasta und Brokkoli</t>
   </si>
   <si>
     <t>Putenschnitzel mit Reis und Brokkoli</t>
-  </si>
-  <si>
-    <t>Wurst-Käse-Salat</t>
-  </si>
-  <si>
-    <t>Zürcher Geschnetzeltes mit Rösti und Rüebli</t>
-  </si>
-  <si>
-    <t>Birchermüesli mit Beeren dazu Brot</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1238,6 +1238,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1308,11 +1312,67 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1327,10 +1387,6 @@
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1365,57 +1421,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1435,25 +1460,55 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1473,57 +1528,6 @@
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2005,8 +2009,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.45"/>
@@ -2026,11 +2030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="97" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="114" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="52" t="s">
@@ -2039,73 +2043,73 @@
       <c r="E1" s="53">
         <v>2025</v>
       </c>
-      <c r="F1" s="98">
+      <c r="F1" s="115">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+2</f>
-        <v>45824</v>
-      </c>
-      <c r="G1" s="98" t="s">
+        <v>45831</v>
+      </c>
+      <c r="G1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="98">
+      <c r="H1" s="115">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+8</f>
-        <v>45830</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="52" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="54">
-        <v>25</v>
-      </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+        <v>26</v>
+      </c>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="91" t="b">
+      <c r="B3" s="92" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="91" t="b">
+      <c r="C3" s="92" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="106" t="b">
+      <c r="D3" s="122" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="91" t="b">
+      <c r="E3" s="122"/>
+      <c r="F3" s="92" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="106" t="b">
+      <c r="G3" s="122" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="106"/>
-      <c r="I3" s="91" t="b">
+      <c r="H3" s="122"/>
+      <c r="I3" s="92" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="91" t="b">
+      <c r="J3" s="92" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" s="55" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55" t="s">
@@ -2113,33 +2117,33 @@
       </c>
       <c r="B5" s="56">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+2</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="C5" s="56">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+3</f>
-        <v>45825</v>
-      </c>
-      <c r="D5" s="99">
+        <v>45832</v>
+      </c>
+      <c r="D5" s="116">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+4</f>
-        <v>45826</v>
-      </c>
-      <c r="E5" s="99"/>
+        <v>45833</v>
+      </c>
+      <c r="E5" s="116"/>
       <c r="F5" s="56">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+5</f>
-        <v>45827</v>
-      </c>
-      <c r="G5" s="99">
+        <v>45834</v>
+      </c>
+      <c r="G5" s="116">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+6</f>
-        <v>45828</v>
-      </c>
-      <c r="H5" s="99"/>
+        <v>45835</v>
+      </c>
+      <c r="H5" s="116"/>
       <c r="I5" s="56">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+7</f>
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="J5" s="56">
         <f>DATE(E1,1,1)+(E2-1)*7-(WEEKDAY(DATE(E1,1,1)))+8</f>
-        <v>45830</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
@@ -2147,26 +2151,26 @@
         <v>14</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="113" t="s">
+      <c r="H6" s="121"/>
+      <c r="I6" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="108" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2175,146 +2179,146 @@
         <v>6</v>
       </c>
       <c r="B7" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="D7" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="119"/>
+      <c r="F7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="102" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="100" t="s">
+      <c r="G7" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="112"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" s="67" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="112"/>
+      <c r="G8" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="112"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="61" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="100"/>
+      <c r="D9" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="105"/>
       <c r="F9" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="108"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="112"/>
+      <c r="G9" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="64" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="108"/>
+      <c r="D10" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="104"/>
       <c r="F10" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="112"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C11" s="68" t="str">
         <f>B11</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="D11" s="109" t="str">
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="D11" s="106" t="str">
         <f>B11</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="E11" s="110"/>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="E11" s="107"/>
       <c r="F11" s="68" t="str">
         <f>B11</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="G11" s="109" t="str">
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="G11" s="106" t="str">
         <f>B11</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="112"/>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="H11" s="107"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="69" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="118"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="118"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="71"/>
       <c r="J12" s="72"/>
     </row>
@@ -2322,131 +2326,111 @@
       <c r="A13" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="94" t="s">
-        <v>64</v>
+      <c r="B13" s="95" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="103"/>
+      <c r="I13" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="77" t="str">
+        <f>B14</f>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+      <c r="D14" s="102" t="str">
+        <f>B14</f>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="F14" s="78" t="str">
+        <f>B14</f>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+      <c r="G14" s="101" t="str">
+        <f>B14</f>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+      <c r="H14" s="102"/>
+      <c r="I14" s="78" t="str">
+        <f>B14</f>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+      <c r="J14" s="79" t="str">
+        <f>B14</f>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="100"/>
+      <c r="F15" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="100"/>
+      <c r="I15" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="86" customFormat="1" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="122" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="122" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="95" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="76" t="str">
-        <f>B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-      <c r="D14" s="121" t="str">
-        <f>B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="77" t="str">
-        <f>B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-      <c r="G14" s="120" t="str">
-        <f>B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="77" t="str">
-        <f>B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-      <c r="J14" s="78" t="str">
-        <f>B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="60" customFormat="1" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="119"/>
-      <c r="I15" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="85" customFormat="1" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QP3E/EbFMbHmRTgE6Fhv4kliRRoosYtJ1Tv9SbpBOhZAJO62b+iysBxejJBZKNk4DYzk2sCotzozSNqRYuKnLQ==" saltValue="wBXknDB7pGR62I2hq8K8ow==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iOyoXyWEAVeZxoV703LKnMn4W2klpsMojP76YpcnF/VgaFu/OizXMJFyLFxdqhUrX9cVqH2+Jl4pxeobmwwdlg==" saltValue="MXyYFXzSajEWaWuCxIxcXA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="35">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J6:J11"/>
-    <mergeCell ref="I6:I11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
@@ -2462,6 +2446,26 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J6:J11"/>
+    <mergeCell ref="I6:I11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2490,39 +2494,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="124" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="125">
+      <c r="D1" s="133">
         <f>Grundlage!E2</f>
-        <v>25</v>
-      </c>
-      <c r="F1" s="124">
+        <v>26</v>
+      </c>
+      <c r="F1" s="132">
         <f>Grundlage!E1</f>
         <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="124"/>
+      <c r="F2" s="132"/>
     </row>
     <row r="3" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="90" t="str">
+      <c r="E3" s="91" t="str">
         <f>IF(OR(Grundlage!F16 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F16)</f>
-        <v>Fruchtsalat</v>
+        <v>Marmorkuchen</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -2553,109 +2557,109 @@
       <c r="A5" s="23"/>
       <c r="B5" s="18">
         <f>Grundlage!B5</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="C5" s="18">
         <f>Grundlage!C5</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D5" s="18">
         <f>Grundlage!D5</f>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="E5" s="18">
         <f>Grundlage!F5</f>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="F5" s="18">
         <f>Grundlage!G5</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="88" t="str">
+      <c r="B6" s="89" t="str">
         <f>IF(OR(Grundlage!B6 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B6)</f>
-        <v>Tomatensuppe</v>
-      </c>
-      <c r="C6" s="88" t="str">
+        <v>Weissweinsuppe</v>
+      </c>
+      <c r="C6" s="89" t="str">
         <f>IF(OR(Grundlage!C6 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C6)</f>
-        <v>Gemüsebouillon mit Risoni</v>
-      </c>
-      <c r="D6" s="88" t="str">
+        <v>Rindsbouillon mit Fideli</v>
+      </c>
+      <c r="D6" s="89" t="str">
         <f>IF(OR(Grundlage!D6 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D6)</f>
-        <v>Cremige Rüeblisuppe</v>
-      </c>
-      <c r="E6" s="88" t="str">
+        <v>Kalte Melonensuppe</v>
+      </c>
+      <c r="E6" s="89" t="str">
         <f>IF(OR(Grundlage!F6 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F6)</f>
-        <v>Geflügelbouillon mit Buchstaben</v>
-      </c>
-      <c r="F6" s="88" t="str">
+        <v>Gemüsebouillon mit Backerbsen</v>
+      </c>
+      <c r="F6" s="89" t="str">
         <f>IF(OR(Grundlage!G6 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G6)</f>
-        <v>Kalte Gurkensuppe</v>
+        <v>Lauchcremesuppe</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="88" t="str">
+      <c r="B8" s="89" t="str">
         <f>IF(OR(Grundlage!B7 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B7)</f>
-        <v>Kopfsalat</v>
-      </c>
-      <c r="C8" s="88" t="str">
+        <v>Eisbergsalat</v>
+      </c>
+      <c r="C8" s="89" t="str">
         <f>IF(OR(Grundlage!C7 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C7)</f>
-        <v>Maissalat</v>
-      </c>
-      <c r="D8" s="88" t="str">
+        <v>Tomaten-Mozzarella Salat</v>
+      </c>
+      <c r="D8" s="89" t="str">
         <f>IF(OR(Grundlage!D7 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D7)</f>
-        <v>Lollosalat</v>
-      </c>
-      <c r="E8" s="88" t="str">
+        <v>Zuckerhutsalat</v>
+      </c>
+      <c r="E8" s="89" t="str">
         <f>IF(OR(Grundlage!F7 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F7)</f>
-        <v>Gurkensalat an Joghurt-Dill-Dressing</v>
-      </c>
-      <c r="F8" s="88" t="str">
+        <v>Couscoussalat</v>
+      </c>
+      <c r="F8" s="89" t="str">
         <f>IF(OR(Grundlage!G7 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G7)</f>
         <v>Blattsalat</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="129" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2675,30 +2679,30 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="49" t="str">
         <f>IF(OR(Grundlage!B8 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B8)</f>
-        <v>Zürcher Geschnetzeltes mit Rösti und Rüebli</v>
-      </c>
-      <c r="C11" s="87" t="str">
+        <v>Capuns mit Fleischfüllung</v>
+      </c>
+      <c r="C11" s="88" t="str">
         <f>IF(OR(Grundlage!C8 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C8)</f>
-        <v>Spaghetti Napoli mit Parmesan</v>
+        <v>Gemüsebruger im Bun mit Bratkartoffeln</v>
       </c>
       <c r="D11" s="49" t="str">
         <f>IF(OR(Grundlage!D8 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D8)</f>
-        <v>Pouletcurry mit Reis und Brokkoli</v>
-      </c>
-      <c r="E11" s="87" t="str">
+        <v>Cipollataspiessli an Portweinjus mit Nudeln und Rüebli</v>
+      </c>
+      <c r="E11" s="88" t="str">
         <f>IF(OR(Grundlage!F8 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F8)</f>
-        <v>Gemüseschnitzel mit Bratkartoffeln und Zucchetti</v>
+        <v>Gebratener Reis mit Gemüse</v>
       </c>
       <c r="F11" s="49" t="str">
         <f>IF(OR(Grundlage!G8 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G8)</f>
-        <v>Bandnudeln mit Lachs an feiner Rahmsauce</v>
+        <v>Gebratenes Dorschfilet an Dillsauce mit Polentaschnitte und Brokkoli</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="127" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2718,10 +2722,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="49" t="str">
         <f>IF(OR(Grundlage!B9 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B9)</f>
-        <v>Quorn Geschnetzeltes mit Rösti und Rüebli</v>
+        <v>Capuns mit Gemüsefüllung</v>
       </c>
       <c r="C13" s="49" t="str">
         <f>IF(OR(Grundlage!C9 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C9)</f>
@@ -2729,7 +2733,7 @@
       </c>
       <c r="D13" s="49" t="str">
         <f>IF(OR(Grundlage!D9 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D9)</f>
-        <v>Planted Poulet mit Reis und Brokkoli</v>
+        <v>Vegispiessli an Portweinjus mit Nudeln und Rüebli</v>
       </c>
       <c r="E13" s="49" t="str">
         <f>IF(OR(Grundlage!F9 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F9)</f>
@@ -2737,11 +2741,11 @@
       </c>
       <c r="F13" s="49" t="str">
         <f>IF(OR(Grundlage!G9 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G9)</f>
-        <v>Bandnudeln mit Cherrytomaten an feiner Rahmsauce</v>
+        <v>Gebratene Zucchetti an Dillsauce mit Polentaschnitte und Brokkoli</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="127" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -2761,10 +2765,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="133"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="49" t="str">
         <f>IF(OR(Grundlage!B10 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B10)</f>
-        <v>Knackig frische Salate mit Beeren</v>
+        <v>Knackig frische Salate mit Nüssen</v>
       </c>
       <c r="C15" s="49" t="str">
         <f>IF(OR(Grundlage!C10 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C10)</f>
@@ -2772,7 +2776,7 @@
       </c>
       <c r="D15" s="49" t="str">
         <f>IF(OR(Grundlage!D10 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D10)</f>
-        <v>Knackig frische Salate mit Nüssen</v>
+        <v>Knackig frische Salate mit Beeren</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>IF(OR(Grundlage!F10 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F10)</f>
@@ -2784,41 +2788,41 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="128"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133"/>
-      <c r="B17" s="129" t="str">
+      <c r="A17" s="128"/>
+      <c r="B17" s="124" t="str">
         <f>IF(Grundlage!B11 = 0,"-",Grundlage!B11)</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="131"/>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TMB/EGZizjk1KVSorR/a37/g8bENnjiQLgJD9x5tDN9NNuioggqBcEyy4zuk2AFl6+BpGxx+VSd3ZTOdp730ZQ==" saltValue="6W+aOqhp2WcPyhy8pxbpNQ==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="10">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B16:F16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
@@ -2851,39 +2855,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="124" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="125">
+      <c r="D1" s="133">
         <f>Grundlage!E2</f>
-        <v>25</v>
-      </c>
-      <c r="F1" s="124">
+        <v>26</v>
+      </c>
+      <c r="F1" s="132">
         <f>Grundlage!E1</f>
         <v>2025</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="1">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="124"/>
+      <c r="F2" s="132"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="90" t="str">
+      <c r="E3" s="91" t="str">
         <f>IF(OR(Grundlage!F16 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F16)</f>
-        <v>Fruchtsalat</v>
+        <v>Marmorkuchen</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -2914,109 +2918,109 @@
       <c r="A5" s="23"/>
       <c r="B5" s="18">
         <f>Grundlage!B5</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="C5" s="18">
         <f>Grundlage!C5</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="D5" s="18">
         <f>Grundlage!D5</f>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="E5" s="18">
         <f>Grundlage!F5</f>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="F5" s="18">
         <f>Grundlage!G5</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
-      <c r="B6" s="88" t="str">
+      <c r="B6" s="89" t="str">
         <f>IF(OR(Grundlage!B6 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B6)</f>
-        <v>Tomatensuppe</v>
-      </c>
-      <c r="C6" s="88" t="str">
+        <v>Weissweinsuppe</v>
+      </c>
+      <c r="C6" s="89" t="str">
         <f>IF(OR(Grundlage!C6 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C6)</f>
-        <v>Gemüsebouillon mit Risoni</v>
-      </c>
-      <c r="D6" s="88" t="str">
+        <v>Rindsbouillon mit Fideli</v>
+      </c>
+      <c r="D6" s="89" t="str">
         <f>IF(OR(Grundlage!D6 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D6)</f>
-        <v>Cremige Rüeblisuppe</v>
-      </c>
-      <c r="E6" s="88" t="str">
+        <v>Kalte Melonensuppe</v>
+      </c>
+      <c r="E6" s="89" t="str">
         <f>IF(OR(Grundlage!F6 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F6)</f>
-        <v>Geflügelbouillon mit Buchstaben</v>
-      </c>
-      <c r="F6" s="88" t="str">
+        <v>Gemüsebouillon mit Backerbsen</v>
+      </c>
+      <c r="F6" s="89" t="str">
         <f>IF(OR(Grundlage!G6 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G6)</f>
-        <v>Kalte Gurkensuppe</v>
+        <v>Lauchcremesuppe</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="88" t="str">
+      <c r="B8" s="89" t="str">
         <f>IF(OR(Grundlage!B7 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B7)</f>
-        <v>Kopfsalat</v>
-      </c>
-      <c r="C8" s="88" t="str">
+        <v>Eisbergsalat</v>
+      </c>
+      <c r="C8" s="89" t="str">
         <f>IF(OR(Grundlage!C7 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C7)</f>
-        <v>Maissalat</v>
-      </c>
-      <c r="D8" s="88" t="str">
+        <v>Tomaten-Mozzarella Salat</v>
+      </c>
+      <c r="D8" s="89" t="str">
         <f>IF(OR(Grundlage!D7 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D7)</f>
-        <v>Lollosalat</v>
-      </c>
-      <c r="E8" s="88" t="str">
+        <v>Zuckerhutsalat</v>
+      </c>
+      <c r="E8" s="89" t="str">
         <f>IF(OR(Grundlage!F7 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F7)</f>
-        <v>Gurkensalat an Joghurt-Dill-Dressing</v>
-      </c>
-      <c r="F8" s="88" t="str">
+        <v>Couscoussalat</v>
+      </c>
+      <c r="F8" s="89" t="str">
         <f>IF(OR(Grundlage!G7 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G7)</f>
         <v>Blattsalat</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="129" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -3036,30 +3040,30 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="49" t="str">
         <f>IF(OR(Grundlage!B8 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B8)</f>
-        <v>Zürcher Geschnetzeltes mit Rösti und Rüebli</v>
-      </c>
-      <c r="C11" s="87" t="str">
+        <v>Capuns mit Fleischfüllung</v>
+      </c>
+      <c r="C11" s="88" t="str">
         <f>IF(OR(Grundlage!C8 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C8)</f>
-        <v>Spaghetti Napoli mit Parmesan</v>
+        <v>Gemüsebruger im Bun mit Bratkartoffeln</v>
       </c>
       <c r="D11" s="49" t="str">
         <f>IF(OR(Grundlage!D8 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D8)</f>
-        <v>Pouletcurry mit Reis und Brokkoli</v>
-      </c>
-      <c r="E11" s="87" t="str">
+        <v>Cipollataspiessli an Portweinjus mit Nudeln und Rüebli</v>
+      </c>
+      <c r="E11" s="88" t="str">
         <f>IF(OR(Grundlage!F8 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F8)</f>
-        <v>Gemüseschnitzel mit Bratkartoffeln und Zucchetti</v>
+        <v>Gebratener Reis mit Gemüse</v>
       </c>
       <c r="F11" s="49" t="str">
         <f>IF(OR(Grundlage!G8 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G8)</f>
-        <v>Bandnudeln mit Lachs an feiner Rahmsauce</v>
+        <v>Gebratenes Dorschfilet an Dillsauce mit Polentaschnitte und Brokkoli</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="127" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -3079,10 +3083,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="49" t="str">
         <f>IF(OR(Grundlage!B9 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B9)</f>
-        <v>Quorn Geschnetzeltes mit Rösti und Rüebli</v>
+        <v>Capuns mit Gemüsefüllung</v>
       </c>
       <c r="C13" s="49" t="str">
         <f>IF(OR(Grundlage!C9 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C9)</f>
@@ -3090,7 +3094,7 @@
       </c>
       <c r="D13" s="49" t="str">
         <f>IF(OR(Grundlage!D9 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D9)</f>
-        <v>Planted Poulet mit Reis und Brokkoli</v>
+        <v>Vegispiessli an Portweinjus mit Nudeln und Rüebli</v>
       </c>
       <c r="E13" s="49" t="str">
         <f>IF(OR(Grundlage!F9 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F9)</f>
@@ -3098,11 +3102,11 @@
       </c>
       <c r="F13" s="49" t="str">
         <f>IF(OR(Grundlage!G9 = 0,Grundlage!G$3 = TRUE),"-",Grundlage!G9)</f>
-        <v>Bandnudeln mit Cherrytomaten an feiner Rahmsauce</v>
+        <v>Gebratene Zucchetti an Dillsauce mit Polentaschnitte und Brokkoli</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="127" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -3122,10 +3126,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="133"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="49" t="str">
         <f>IF(OR(Grundlage!B10 = 0,Grundlage!B$3 = TRUE),"-",Grundlage!B10)</f>
-        <v>Knackig frische Salate mit Beeren</v>
+        <v>Knackig frische Salate mit Nüssen</v>
       </c>
       <c r="C15" s="49" t="str">
         <f>IF(OR(Grundlage!C10 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C10)</f>
@@ -3133,7 +3137,7 @@
       </c>
       <c r="D15" s="49" t="str">
         <f>IF(OR(Grundlage!D10 = 0,Grundlage!D$3 = TRUE),"-",Grundlage!D10)</f>
-        <v>Knackig frische Salate mit Nüssen</v>
+        <v>Knackig frische Salate mit Beeren</v>
       </c>
       <c r="E15" s="49" t="str">
         <f>IF(OR(Grundlage!F10 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F10)</f>
@@ -3145,7 +3149,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="127" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="22"/>
@@ -3159,16 +3163,16 @@
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="133"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="87" t="str">
+      <c r="C17" s="88" t="str">
         <f>IF(OR(Grundlage!C11 = 0,Grundlage!C$3 = TRUE),"-",Grundlage!C11)</f>
-        <v>Wurst-Käse-Salat</v>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="87" t="str">
+      <c r="E17" s="88" t="str">
         <f>IF(OR(Grundlage!F11 = 0,Grundlage!F$3 = TRUE),"-",Grundlage!F11)</f>
-        <v>Wurst-Käse-Salat</v>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
       </c>
       <c r="F17" s="49"/>
     </row>
@@ -3217,26 +3221,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="125">
+      <c r="H1" s="133">
         <f>Grundlage!E2</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="1">
-      <c r="C2" s="136"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="6"/>
       <c r="E2" s="8"/>
       <c r="F2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="124"/>
-      <c r="H2" s="125"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="9">
         <f>Grundlage!E1</f>
         <v>2025</v>
@@ -3248,7 +3252,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="42" t="str">
         <f>Grundlage!F16</f>
-        <v>Fruchtsalat</v>
+        <v>Marmorkuchen</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -3285,69 +3289,69 @@
     <row r="5" spans="1:9" s="17" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="45">
         <f>Grundlage!B5</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="D5" s="46">
         <f>Grundlage!C5</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="E5" s="47">
         <f>Grundlage!D5</f>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="F5" s="46">
         <f>Grundlage!F5</f>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="G5" s="47">
         <f>Grundlage!G5</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="H5" s="46">
         <f>Grundlage!I5</f>
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="I5" s="48">
         <f>Grundlage!J5</f>
-        <v>45830</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="139" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="34" t="str">
         <f>Grundlage!B6</f>
-        <v>Tomatensuppe</v>
+        <v>Weissweinsuppe</v>
       </c>
       <c r="D6" s="34" t="str">
         <f>Grundlage!C6</f>
-        <v>Gemüsebouillon mit Risoni</v>
+        <v>Rindsbouillon mit Fideli</v>
       </c>
       <c r="E6" s="34" t="str">
         <f>Grundlage!D6</f>
-        <v>Cremige Rüeblisuppe</v>
+        <v>Kalte Melonensuppe</v>
       </c>
       <c r="F6" s="34" t="str">
         <f>Grundlage!F6</f>
-        <v>Geflügelbouillon mit Buchstaben</v>
+        <v>Gemüsebouillon mit Backerbsen</v>
       </c>
       <c r="G6" s="34" t="str">
         <f>Grundlage!G6</f>
-        <v>Kalte Gurkensuppe</v>
-      </c>
-      <c r="H6" s="137" t="str">
+        <v>Lauchcremesuppe</v>
+      </c>
+      <c r="H6" s="155" t="str">
         <f>Grundlage!I6</f>
         <v xml:space="preserve">Brunch </v>
       </c>
-      <c r="I6" s="137" t="str">
+      <c r="I6" s="155" t="str">
         <f>Grundlage!J6</f>
         <v>Brunch</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
+      <c r="A7" s="140"/>
       <c r="B7" s="29"/>
       <c r="C7" s="35" t="s">
         <v>16</v>
@@ -3364,37 +3368,37 @@
       <c r="G7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
     </row>
     <row r="8" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
+      <c r="A8" s="140"/>
       <c r="B8" s="29"/>
       <c r="C8" s="35" t="str">
         <f>Grundlage!B7</f>
-        <v>Kopfsalat</v>
+        <v>Eisbergsalat</v>
       </c>
       <c r="D8" s="35" t="str">
         <f>Grundlage!C7</f>
-        <v>Maissalat</v>
+        <v>Tomaten-Mozzarella Salat</v>
       </c>
       <c r="E8" s="35" t="str">
         <f>Grundlage!D7</f>
-        <v>Lollosalat</v>
+        <v>Zuckerhutsalat</v>
       </c>
       <c r="F8" s="35" t="str">
         <f>Grundlage!F7</f>
-        <v>Gurkensalat an Joghurt-Dill-Dressing</v>
+        <v>Couscoussalat</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>Grundlage!G7</f>
         <v>Blattsalat</v>
       </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
     </row>
     <row r="9" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="143"/>
+      <c r="A9" s="140"/>
       <c r="B9" s="29"/>
       <c r="C9" s="35" t="s">
         <v>16</v>
@@ -3411,12 +3415,12 @@
       <c r="G9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="143"/>
-      <c r="B10" s="145" t="s">
+      <c r="A10" s="140"/>
+      <c r="B10" s="137" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -3434,38 +3438,38 @@
       <c r="G10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="1:9" ht="231.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="143"/>
-      <c r="B11" s="146"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="37" t="str">
         <f>Grundlage!B8</f>
-        <v>Zürcher Geschnetzeltes mit Rösti und Rüebli</v>
+        <v>Capuns mit Fleischfüllung</v>
       </c>
       <c r="D11" s="37" t="str">
         <f>Grundlage!C8</f>
-        <v>Spaghetti Napoli mit Parmesan</v>
+        <v>Gemüsebruger im Bun mit Bratkartoffeln</v>
       </c>
       <c r="E11" s="37" t="str">
         <f>Grundlage!D8</f>
-        <v>Pouletcurry mit Reis und Brokkoli</v>
+        <v>Cipollataspiessli an Portweinjus mit Nudeln und Rüebli</v>
       </c>
       <c r="F11" s="37" t="str">
         <f>Grundlage!F8</f>
-        <v>Gemüseschnitzel mit Bratkartoffeln und Zucchetti</v>
+        <v>Gebratener Reis mit Gemüse</v>
       </c>
       <c r="G11" s="37" t="str">
         <f>Grundlage!G8</f>
-        <v>Bandnudeln mit Lachs an feiner Rahmsauce</v>
-      </c>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
+        <v>Gebratenes Dorschfilet an Dillsauce mit Polentaschnitte und Brokkoli</v>
+      </c>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
     </row>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A12" s="143"/>
-      <c r="B12" s="145" t="s">
+      <c r="A12" s="140"/>
+      <c r="B12" s="137" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="36" t="s">
@@ -3483,15 +3487,15 @@
       <c r="G12" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
     </row>
     <row r="13" spans="1:9" ht="200.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="37" t="str">
         <f>Grundlage!B9</f>
-        <v>Quorn Geschnetzeltes mit Rösti und Rüebli</v>
+        <v>Capuns mit Gemüsefüllung</v>
       </c>
       <c r="D13" s="37" t="str">
         <f>Grundlage!C9</f>
@@ -3499,7 +3503,7 @@
       </c>
       <c r="E13" s="37" t="str">
         <f>Grundlage!D9</f>
-        <v>Planted Poulet mit Reis und Brokkoli</v>
+        <v>Vegispiessli an Portweinjus mit Nudeln und Rüebli</v>
       </c>
       <c r="F13" s="37" t="str">
         <f>Grundlage!F9</f>
@@ -3507,43 +3511,43 @@
       </c>
       <c r="G13" s="37" t="str">
         <f>Grundlage!G9</f>
-        <v>Bandnudeln mit Cherrytomaten an feiner Rahmsauce</v>
-      </c>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
+        <v>Gebratene Zucchetti an Dillsauce mit Polentaschnitte und Brokkoli</v>
+      </c>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
     </row>
     <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A14" s="143"/>
-      <c r="B14" s="145" t="s">
+      <c r="A14" s="140"/>
+      <c r="B14" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
     </row>
     <row r="15" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="143"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="147" t="str">
+      <c r="A15" s="140"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="151" t="str">
         <f>Grundlage!B11</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
     </row>
     <row r="16" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A16" s="143"/>
-      <c r="B16" s="145" t="s">
+      <c r="A16" s="140"/>
+      <c r="B16" s="137" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="38" t="s">
@@ -3569,8 +3573,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="41" t="str">
         <f>Grundlage!B12</f>
         <v>Hähnchenbrust mit Reis und Kohlrabi</v>
@@ -3612,10 +3616,10 @@
       <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="142" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -3641,69 +3645,69 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="200.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="143"/>
-      <c r="B20" s="151"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="37" t="str">
         <f>Grundlage!B13</f>
-        <v>Nudelsalat mit Cherrytomaten, Mozzarella an Pestosauce</v>
+        <v>Ratatouille mit Rösti</v>
       </c>
       <c r="D20" s="44" t="str">
         <f>Grundlage!C13</f>
-        <v>Nasi Goreng mit Pouletstreifen</v>
+        <v>Toast Hawaii dazu Salat</v>
       </c>
       <c r="E20" s="37" t="str">
         <f>Grundlage!D13</f>
-        <v>Spinat-Quiche dazu Salat mit Tomaten</v>
+        <v>Gnocchisalat mit Pesto, Rucola und Cherrytomaten</v>
       </c>
       <c r="F20" s="44" t="str">
         <f>Grundlage!F13</f>
-        <v>Kebab dazu Salat</v>
+        <v>Flammkuchen mit Zwiebeln und Speck dazu Salat</v>
       </c>
       <c r="G20" s="37" t="str">
         <f>Grundlage!G13</f>
-        <v>Fotzelschnitte mit Apfelmus dazu Salat</v>
+        <v>Spaghetti mit roter Pesto dazu Salat</v>
       </c>
       <c r="H20" s="44" t="str">
         <f>Grundlage!I13</f>
-        <v>Cordonbleu mit Bratkartoffeln und Rüebli</v>
+        <v>Mah Meh mit Tofu und Gemüse</v>
       </c>
       <c r="I20" s="37" t="str">
         <f>Grundlage!J13</f>
-        <v>Pinsa mit Tomatensauce, Mozzarella, Salami dazu Salat</v>
+        <v>Pouletbrsut an Tomatenreis mit Romanesco</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="143"/>
-      <c r="B21" s="152" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="153" t="s">
+      <c r="C21" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="155"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
     </row>
     <row r="22" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="143"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="156" t="str">
+      <c r="A22" s="140"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="148" t="str">
         <f>Grundlage!B14</f>
-        <v>Birchermüesli mit Beeren dazu Brot</v>
-      </c>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="158"/>
+        <v>Käseküchlein mit Rüeblisalat</v>
+      </c>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="150"/>
     </row>
     <row r="23" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="143"/>
-      <c r="B23" s="145" t="s">
+      <c r="A23" s="140"/>
+      <c r="B23" s="137" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="38" t="s">
@@ -3729,8 +3733,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="144"/>
-      <c r="B24" s="146"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="41" t="str">
         <f>Grundlage!B15</f>
         <v>Kassler mit Sauerkraut dazu Salzkartoffeln</v>
@@ -3763,24 +3767,24 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lLiVqOvi8yIGI9MGEb3iVnU0+NXGqHYNg5S8E9x5anuCA1TbvCjcZW6z0HJCI77F8hYF9uC7VW4bxTMPtskYgA==" saltValue="BsjPlffqHCXQH3cSsyEBwg==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="18">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H15"/>
+    <mergeCell ref="I6:I15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C22:I22"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H6:H15"/>
-    <mergeCell ref="I6:I15"/>
-    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.47244094488188981" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3821,7 +3825,7 @@
       </c>
       <c r="D1" s="8">
         <f>Grundlage!E2</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="9">
         <f>Grundlage!E1</f>
@@ -3838,45 +3842,45 @@
     <row r="3" spans="1:5" s="14" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <f>Grundlage!B5</f>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B3" s="13">
         <f>Grundlage!C5</f>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="C3" s="13">
         <f>Grundlage!D5</f>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="D3" s="13">
         <f>Grundlage!F5</f>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="E3" s="13">
         <f>Grundlage!G5</f>
-        <v>45828</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="str">
         <f>Grundlage!B6</f>
-        <v>Tomatensuppe</v>
+        <v>Weissweinsuppe</v>
       </c>
       <c r="B4" s="10" t="str">
         <f>Grundlage!C6</f>
-        <v>Gemüsebouillon mit Risoni</v>
+        <v>Rindsbouillon mit Fideli</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>Grundlage!D6</f>
-        <v>Cremige Rüeblisuppe</v>
+        <v>Kalte Melonensuppe</v>
       </c>
       <c r="D4" s="10" t="str">
         <f>Grundlage!F6</f>
-        <v>Geflügelbouillon mit Buchstaben</v>
+        <v>Gemüsebouillon mit Backerbsen</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>Grundlage!G6</f>
-        <v>Kalte Gurkensuppe</v>
+        <v>Lauchcremesuppe</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
@@ -3899,19 +3903,19 @@
     <row r="6" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="str">
         <f>Grundlage!B7</f>
-        <v>Kopfsalat</v>
+        <v>Eisbergsalat</v>
       </c>
       <c r="B6" s="10" t="str">
         <f>Grundlage!C7</f>
-        <v>Maissalat</v>
+        <v>Tomaten-Mozzarella Salat</v>
       </c>
       <c r="C6" s="10" t="str">
         <f>Grundlage!D7</f>
-        <v>Lollosalat</v>
+        <v>Zuckerhutsalat</v>
       </c>
       <c r="D6" s="10" t="str">
         <f>Grundlage!F7</f>
-        <v>Gurkensalat an Joghurt-Dill-Dressing</v>
+        <v>Couscoussalat</v>
       </c>
       <c r="E6" s="10" t="str">
         <f>Grundlage!G7</f>
@@ -3938,23 +3942,23 @@
     <row r="8" spans="1:5" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="str">
         <f>Grundlage!B8</f>
-        <v>Zürcher Geschnetzeltes mit Rösti und Rüebli</v>
+        <v>Capuns mit Fleischfüllung</v>
       </c>
       <c r="B8" s="10" t="str">
         <f>Grundlage!C8</f>
-        <v>Spaghetti Napoli mit Parmesan</v>
+        <v>Gemüsebruger im Bun mit Bratkartoffeln</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>Grundlage!D8</f>
-        <v>Pouletcurry mit Reis und Brokkoli</v>
+        <v>Cipollataspiessli an Portweinjus mit Nudeln und Rüebli</v>
       </c>
       <c r="D8" s="10" t="str">
         <f>Grundlage!F8</f>
-        <v>Gemüseschnitzel mit Bratkartoffeln und Zucchetti</v>
+        <v>Gebratener Reis mit Gemüse</v>
       </c>
       <c r="E8" s="10" t="str">
         <f>Grundlage!G8</f>
-        <v>Bandnudeln mit Lachs an feiner Rahmsauce</v>
+        <v>Gebratenes Dorschfilet an Dillsauce mit Polentaschnitte und Brokkoli</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3973,37 +3977,37 @@
     <row r="10" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>Grundlage!B9</f>
-        <v>Quorn Geschnetzeltes mit Rösti und Rüebli</v>
+        <v>Capuns mit Gemüsefüllung</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12" t="str">
         <f>Grundlage!D9</f>
-        <v>Planted Poulet mit Reis und Brokkoli</v>
+        <v>Vegispiessli an Portweinjus mit Nudeln und Rüebli</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="str">
         <f>Grundlage!G9</f>
-        <v>Bandnudeln mit Cherrytomaten an feiner Rahmsauce</v>
+        <v>Gebratene Zucchetti an Dillsauce mit Polentaschnitte und Brokkoli</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="161"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="162" t="str">
+      <c r="A12" s="163" t="str">
         <f>Grundlage!B11</f>
-        <v>Wurst-Käse-Salat</v>
-      </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
+        <v>Kalbsbratwurst mit Bratkartoffeln und Zwiebelsauce</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="dKFh/jWrl/QV4M4LID+KHz7A94xgBMFYY6+/vMYm72sizLHks7mhH51/h0quM63kNtXMx9qHEdMzIrmLJZ4+Gg==" saltValue="mC14oVAObLorvxNGtw+cPQ==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
